--- a/biology/Médecine/Flexion_(médecine)/Flexion_(médecine).xlsx
+++ b/biology/Médecine/Flexion_(médecine)/Flexion_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flexion_(m%C3%A9decine)</t>
+          <t>Flexion_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, la flexion désigne un des mouvements du corps menant à une diminution de l'angle entre deux segments d'un membre ou deux parties squelettiques du corps. Le mouvement se produit habituellement dans le plan sagittal. La flexion s'oppose ainsi à l'extension.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flexion_(m%C3%A9decine)</t>
+          <t>Flexion_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,86 @@
           <t>Muscles responsables de la flexion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les muscles qui interviennent dans la flexion et par ordre d'intervention sont les suivants[1] :
-Coude
-Muscle Brachial.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les muscles qui interviennent dans la flexion et par ordre d'intervention sont les suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Flexion_(médecine)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flexion_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Muscles responsables de la flexion</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Coude</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Muscle Brachial.
 Muscle biceps brachial.
-Accessoirement, les muscles brachio-radial, fléchisseur radial du carpe, supinateur et rond pronateur.
-Poignet
-Muscle fléchisseur radial du carpe.
+Accessoirement, les muscles brachio-radial, fléchisseur radial du carpe, supinateur et rond pronateur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Flexion_(médecine)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flexion_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Muscles responsables de la flexion</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poignet</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Muscle fléchisseur radial du carpe.
 Muscle fléchisseur ulnaire du carpe.
 Muscle fléchisseur superficiel des doigts et Muscle fléchisseur profond des doigts.
 Muscle long fléchisseur du pouce, Muscle long palmaire et Muscle long abducteur du pouce.</t>
